--- a/biology/Zoologie/Hétérodontie/Hétérodontie.xlsx
+++ b/biology/Zoologie/Hétérodontie/Hétérodontie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rodontie</t>
+          <t>Hétérodontie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérodontie est une denture hétérogène constituée de dents dissemblables. Chaque type de dent se distingue par sa morphologie et par sa fonction. 
 Par exemple les animaux du taxon des synapsides, dont les mammifères sont les représentants actuels, possèdent généralement des incisives, des canines, des prémolaires et des molaires. 
